--- a/Node_Information/West_CM_Inner.xlsx
+++ b/Node_Information/West_CM_Inner.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsat27828\Desktop\ThermalMap_NodeGroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t25944\Desktop\Small-GEO\Thermo-Elastic\Delta CDR\Coordinates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB8E106-113B-46F6-9679-726E4F577495}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
     <t>Solution Name :</t>
   </si>
   <si>
-    <t>_ASG1_GLOBAL_MODEL_assyfem1_sim1 : EQNXBOL_Thermoelastic</t>
+    <t>_ASG1_GLOBAL_MODEL_assyfem1_sim1 : JSEOL_Delta_CDR</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -44,7 +45,7 @@
     <t>Iteration :</t>
   </si>
   <si>
-    <t>Increment 33, 9.024E+04s</t>
+    <t>Increment 6, 1.200E+03s</t>
   </si>
   <si>
     <t>Result :</t>
@@ -101,11 +102,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="##0.000E+0"/>
+    <numFmt numFmtId="168" formatCode="##0.000E+0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,18 +149,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,724 +439,846 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>211620</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="B13" s="1">
+        <v>279185</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F13" s="3">
         <v>536.88995361328102</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>2708.7998046875</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
-        <v>22.364997863769499</v>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>8.4511508941650408</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>211621</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="B14" s="1">
+        <v>279186</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F14" s="3">
         <v>536.88995361328102</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>2248.80004882813</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <v>22.089641571044901</v>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>8.4185218811035192</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>211622</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="B15" s="1">
+        <v>279187</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F15" s="3">
         <v>536.88995361328102</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>1788.7998046875</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <v>21.987504959106399</v>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>8.4830121994018608</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>211623</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="B16" s="1">
+        <v>279188</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F16" s="3">
         <v>536.88995361328102</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>1328.7998046875</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
-        <v>21.408863067626999</v>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>8.6907434463500994</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>211624</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="B17" s="1">
+        <v>279189</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <v>2708.7998046875</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
-        <v>22.705905914306602</v>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>8.4847774505615199</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>211625</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="B18" s="1">
+        <v>279190</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>2248.80004882813</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <v>22.796348571777301</v>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>8.3492355346679705</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>211626</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="B19" s="1">
+        <v>279191</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>1788.7998046875</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2">
-        <v>22.563093185424801</v>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
+        <v>8.3532075881958008</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>211627</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="B20" s="1">
+        <v>279192</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>1328.7998046875</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2">
-        <v>21.8668518066406</v>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>8.4628429412841797</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>211628</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="B21" s="1">
+        <v>279193</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F21" s="3">
         <v>-536.88995361328102</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <v>2708.7998046875</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
-        <v>22.9042778015137</v>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>8.7233028411865199</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>211629</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="B22" s="1">
+        <v>279194</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F22" s="3">
         <v>-536.88995361328102</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>2248.80004882813</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
-        <v>23.113296508789102</v>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <v>8.4925022125244105</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>211630</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="B23" s="1">
+        <v>279195</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F23" s="3">
         <v>-536.88995361328102</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>1788.7998046875</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
-        <v>22.5925998687744</v>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>8.4058027267456108</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>211631</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="B24" s="1">
+        <v>279196</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F24" s="3">
         <v>-536.88995361328102</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>1328.7998046875</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
-        <v>21.854923248291001</v>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>8.3774528503418004</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>211632</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="B25" s="1">
+        <v>279197</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F25" s="3">
         <v>1073.77990722656</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>1328.7998046875</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2">
-        <v>21.0837306976318</v>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>8.8730993270874006</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>211633</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="B26" s="1">
+        <v>279198</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F26" s="3">
         <v>1073.77990722656</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>1788.7998046875</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
-        <v>21.602741241455099</v>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>8.7988653182983398</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>211634</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="B27" s="1">
+        <v>279199</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F27" s="3">
         <v>1073.77990722656</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <v>2248.80004882813</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2">
-        <v>21.879045486450199</v>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>8.7533855438232404</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>211635</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="B28" s="1">
+        <v>279200</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F28" s="3">
         <v>1073.77990722656</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <v>2708.7998046875</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2">
-        <v>22.346805572509801</v>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <v>8.7319831848144496</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>211636</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="B29" s="1">
+        <v>279201</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F29" s="3">
         <v>-536.88995361328102</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="1">
         <v>868.79992675781295</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2">
-        <v>21.679336547851602</v>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <v>8.2437553405761701</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>211637</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="B30" s="1">
+        <v>279202</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="1">
         <v>868.79992675781295</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2">
-        <v>21.409286499023398</v>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>8.4730854034423793</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>211638</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="B31" s="1">
+        <v>279203</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F31" s="3">
         <v>536.88995361328102</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="1">
         <v>868.79992675781295</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2">
-        <v>20.657138824462901</v>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>8.7807855606079102</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>211639</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="B32" s="1">
+        <v>279204</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F32" s="3">
         <v>536.88995361328102</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="1">
         <v>3168.7998046875</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2">
-        <v>22.4929008483887</v>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <v>8.4608154296875</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>211640</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="B33" s="1">
+        <v>279205</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="1">
         <v>3168.7998046875</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2">
-        <v>22.720321655273398</v>
-      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
+        <v>8.5365724563598597</v>
+      </c>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>211641</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="B34" s="1">
+        <v>279206</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F34" s="3">
         <v>-536.88995361328102</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="1">
         <v>3168.7998046875</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2">
-        <v>22.746767044067401</v>
-      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
+        <v>8.7435359954834002</v>
+      </c>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>211642</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="B35" s="1">
+        <v>279207</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1073.77990722656</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="1">
         <v>2708.7998046875</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
-        <v>22.746414184570298</v>
-      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3">
+        <v>8.6519432067871094</v>
+      </c>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>211643</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="B36" s="1">
+        <v>279208</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F36" s="3">
         <v>-1073.77990722656</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="1">
         <v>2248.80004882813</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
-        <v>22.8763637542725</v>
-      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3">
+        <v>8.4018688201904297</v>
+      </c>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>211644</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F37" s="4">
+      <c r="B37" s="1">
+        <v>279209</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F37" s="3">
         <v>-1073.77990722656</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="1">
         <v>1788.7998046875</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
-        <v>22.354549407958999</v>
-      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3">
+        <v>8.3001070022583008</v>
+      </c>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>211645</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="B38" s="1">
+        <v>279210</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F38" s="3">
         <v>-1073.77990722656</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="1">
         <v>1328.7998046875</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
-        <v>21.678361892700199</v>
-      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3">
+        <v>8.3382844924926793</v>
+      </c>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>211646</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="B39" s="1">
+        <v>279211</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F39" s="3">
         <v>1073.77990722656</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="1">
         <v>868.79992675781295</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2">
-        <v>20.3388271331787</v>
-      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3">
+        <v>8.8526887893676793</v>
+      </c>
+      <c r="J39" s="1"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>211647</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="B40" s="1">
+        <v>279212</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F40" s="3">
         <v>1073.77990722656</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="1">
         <v>3168.7998046875</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2">
-        <v>22.451103210449201</v>
-      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
+        <v>8.6376924514770508</v>
+      </c>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>211648</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F41" s="4">
+      <c r="B41" s="1">
+        <v>279213</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F41" s="3">
         <v>-1073.77990722656</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="1">
         <v>868.79992675781295</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2">
-        <v>21.483341217041001</v>
-      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
+        <v>8.2812032699584996</v>
+      </c>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>211649</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="4">
-        <v>-1173.77978515625</v>
-      </c>
-      <c r="F42" s="4">
+      <c r="B42" s="1">
+        <v>279214</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>-1173.77978515625</v>
+      </c>
+      <c r="F42" s="3">
         <v>-1073.77990722656</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="1">
         <v>3168.7998046875</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2">
-        <v>22.575819015502901</v>
-      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
+        <v>8.7369203567504901</v>
+      </c>
+      <c r="J42" s="1"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="2">
-        <v>20.3388271331787</v>
-      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="3">
+        <v>8.2437553405761701</v>
+      </c>
+      <c r="J44" s="1"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="3">
-        <v>211646</v>
-      </c>
-      <c r="J45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="4">
+        <v>279201</v>
+      </c>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="2">
-        <v>23.113296508789102</v>
-      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="3">
+        <v>8.8730993270874006</v>
+      </c>
+      <c r="J46" s="1"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="3">
-        <v>211629</v>
-      </c>
-      <c r="J47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="4">
+        <v>279197</v>
+      </c>
+      <c r="J47" s="4"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="2">
-        <v>663.37115478515602</v>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="3">
+        <v>256.28915405273398</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I50" s="2">
-        <v>22.112371444702099</v>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="3">
+        <v>8.5429716110229492</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>